--- a/biology/Zoologie/Drymusa_spectata/Drymusa_spectata.xlsx
+++ b/biology/Zoologie/Drymusa_spectata/Drymusa_spectata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymusa spectata est une espèce d'araignées aranéomorphes de la famille des Drymusidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymusa spectata est une espèce d'araignées aranéomorphes de la famille des Drymusidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de province de Sancti Spíritus à Cuba[1],[2]. Elle se rencontre dans l'Escambray.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de province de Sancti Spíritus à Cuba,. Elle se rencontre dans l'Escambray.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,30 mm de long sur 1,70 mm et l'abdomen 2,20 mm de long sur 2,10 mm et la carapace de la femelle paratype mesure 2,70 mm de long sur 2,05 mm et l'abdomen 3,10 mm de long sur 1,80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,30 mm de long sur 1,70 mm et l'abdomen 2,20 mm de long sur 2,10 mm et la carapace de la femelle paratype mesure 2,70 mm de long sur 2,05 mm et l'abdomen 3,10 mm de long sur 1,80 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Alayón en 1981.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alayón, 1981 : « El género Drymusa (Araneae: Loxoscelidae) en Cuba. » Poeyana, no 219, p. 1-19.</t>
         </is>
